--- a/total-recap.xlsx
+++ b/total-recap.xlsx
@@ -466,7 +466,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>190421-1.txt</t>
+          <t>Blackwater Lane.converted.txt</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,617 +529,617 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 - Nelson</t>
+          <t>1 - CHARACTER ID</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3478</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>2856</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>3250</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>2628</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>3432</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 - Jack</t>
+          <t>2 - CASS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142</v>
+        <v>552</v>
       </c>
       <c r="C5" t="n">
-        <v>1773</v>
+        <v>3432</v>
       </c>
       <c r="D5" t="n">
-        <v>8925</v>
+        <v>17294</v>
       </c>
       <c r="E5" t="n">
-        <v>7294</v>
+        <v>14414</v>
       </c>
       <c r="F5" t="n">
-        <v>8440</v>
+        <v>16368</v>
       </c>
       <c r="G5" t="n">
-        <v>6809</v>
+        <v>13488</v>
       </c>
       <c r="H5" t="n">
-        <v>8822</v>
+        <v>17085</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3 - Davie</t>
+          <t>3 - ANDREW</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>689</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
-        <v>3598</v>
+        <v>1395</v>
       </c>
       <c r="E6" t="n">
-        <v>2954</v>
+        <v>1164</v>
       </c>
       <c r="F6" t="n">
-        <v>3427</v>
+        <v>1323</v>
       </c>
       <c r="G6" t="n">
-        <v>2783</v>
+        <v>1092</v>
       </c>
       <c r="H6" t="n">
-        <v>3564</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4 - Gillian</t>
+          <t>4 - JOHN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C7" t="n">
-        <v>934</v>
+        <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>4788</v>
+        <v>1890</v>
       </c>
       <c r="E7" t="n">
-        <v>3914</v>
+        <v>1580</v>
       </c>
       <c r="F7" t="n">
-        <v>4533</v>
+        <v>1774</v>
       </c>
       <c r="G7" t="n">
-        <v>3659</v>
+        <v>1464</v>
       </c>
       <c r="H7" t="n">
-        <v>4741</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 - Mick</t>
+          <t>5 - MATTHEW</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="C8" t="n">
-        <v>272</v>
+        <v>1355</v>
       </c>
       <c r="D8" t="n">
-        <v>1464</v>
+        <v>6929</v>
       </c>
       <c r="E8" t="n">
-        <v>1216</v>
+        <v>5795</v>
       </c>
       <c r="F8" t="n">
-        <v>1383</v>
+        <v>6503</v>
       </c>
       <c r="G8" t="n">
-        <v>1135</v>
+        <v>5369</v>
       </c>
       <c r="H8" t="n">
-        <v>1448</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - Eva</t>
+          <t>6 - REPORTER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>654</v>
+        <v>581</v>
       </c>
       <c r="E9" t="n">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="F9" t="n">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="G9" t="n">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="H9" t="n">
-        <v>646</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - Nina</t>
+          <t>7 - RACHEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="C10" t="n">
-        <v>274</v>
+        <v>902</v>
       </c>
       <c r="D10" t="n">
-        <v>1421</v>
+        <v>4733</v>
       </c>
       <c r="E10" t="n">
-        <v>1172</v>
+        <v>3971</v>
       </c>
       <c r="F10" t="n">
-        <v>1334</v>
+        <v>4490</v>
       </c>
       <c r="G10" t="n">
-        <v>1085</v>
+        <v>3728</v>
       </c>
       <c r="H10" t="n">
-        <v>1405</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 - Figure</t>
+          <t>8 - SUSIE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>984</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>814</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>927</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>757</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>974</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 - Bianca</t>
+          <t>9 - JACK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1128</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>5694</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>4674</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>5405</v>
+        <v>66</v>
       </c>
       <c r="G12" t="n">
-        <v>4385</v>
+        <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>5622</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - Tanya</t>
+          <t>10 - NEWSCASTER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>493</v>
+        <v>180</v>
       </c>
       <c r="E13" t="n">
-        <v>413</v>
+        <v>153</v>
       </c>
       <c r="F13" t="n">
-        <v>449</v>
+        <v>165</v>
       </c>
       <c r="G13" t="n">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="H13" t="n">
-        <v>486</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - Cheryl</t>
+          <t>11 - SECURITY MAN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="D14" t="n">
-        <v>141</v>
+        <v>726</v>
       </c>
       <c r="E14" t="n">
-        <v>124</v>
+        <v>601</v>
       </c>
       <c r="F14" t="n">
-        <v>130</v>
+        <v>690</v>
       </c>
       <c r="G14" t="n">
-        <v>113</v>
+        <v>565</v>
       </c>
       <c r="H14" t="n">
-        <v>136</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - Lopez</t>
+          <t>12 - DC LAWSON</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>611</v>
       </c>
       <c r="D15" t="n">
-        <v>210</v>
+        <v>3231</v>
       </c>
       <c r="E15" t="n">
-        <v>170</v>
+        <v>2711</v>
       </c>
       <c r="F15" t="n">
-        <v>204</v>
+        <v>3080</v>
       </c>
       <c r="G15" t="n">
-        <v>164</v>
+        <v>2560</v>
       </c>
       <c r="H15" t="n">
-        <v>206</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - Garcia</t>
+          <t>13 - GHOSTLY FEMALE VOICE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="G16" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H16" t="n">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - Nick</t>
+          <t>14 - DISPATCHER</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - Tomas</t>
+          <t>15 - OFFICER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" t="n">
         <v>102</v>
       </c>
       <c r="G18" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - Arturo</t>
+          <t>16 - MAN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E19" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G19" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="H19" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - Roberto</t>
+          <t>17 - ALEX</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D20" t="n">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="E20" t="n">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="F20" t="n">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G20" t="n">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H20" t="n">
-        <v>722</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - Mitch</t>
+          <t>18 - DR. DEAKINS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="F21" t="n">
-        <v>61</v>
+        <v>342</v>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="H21" t="n">
-        <v>62</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - Bartender</t>
+          <t>19 - ACTRESS ON TV</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="E22" t="n">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="F22" t="n">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="G22" t="n">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="H22" t="n">
-        <v>209</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - Sophia</t>
+          <t>20 - DOCTOR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" t="n">
         <v>27</v>
       </c>
-      <c r="D23" t="n">
-        <v>143</v>
-      </c>
-      <c r="E23" t="n">
-        <v>123</v>
-      </c>
       <c r="F23" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - Officer</t>
+          <t>21 - AMY</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D24" t="n">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="E24" t="n">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="F24" t="n">
-        <v>256</v>
+        <v>396</v>
       </c>
       <c r="G24" t="n">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="H24" t="n">
-        <v>266</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - Labeau</t>
+          <t>22 - KATHERINE FUSSEY</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="D25" t="n">
-        <v>89</v>
+        <v>1250</v>
       </c>
       <c r="E25" t="n">
-        <v>75</v>
+        <v>1015</v>
       </c>
       <c r="F25" t="n">
-        <v>85</v>
+        <v>1242</v>
       </c>
       <c r="G25" t="n">
-        <v>71</v>
+        <v>1007</v>
       </c>
       <c r="H25" t="n">
-        <v>88</v>
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
